--- a/medicine/Psychotrope/Colli_di_Scandiano_e_di_Canossa_Cabernet_Sauvignon/Colli_di_Scandiano_e_di_Canossa_Cabernet_Sauvignon.xlsx
+++ b/medicine/Psychotrope/Colli_di_Scandiano_e_di_Canossa_Cabernet_Sauvignon/Colli_di_Scandiano_e_di_Canossa_Cabernet_Sauvignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli di Scandiano e di Canossa Cabernet Sauvignon est un vin rouge de la région Émilie-Romagne doté d'une appellation DOC depuis le 20 septembre 1996.
@@ -514,7 +526,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Reggio d'Émilie dans les communes de Albinea, Quattro Castella, Bibbiano, Montecchio, San Polo d'Enza, Canossa, Vezzano sul Crostolo, Viano, Scandiano, Castellarano et Casalgrande ainsi qu'en partie sur le territoire des communes Reggio d'Émilie, Casina, Sant'Ilario d'Enza et Cavriago.
 </t>
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis  intense
 odeur : caractéristique, agréable, intense, herbacé
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres : 
 Reggio Emilia  (1996/97)  247,94</t>
